--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12404" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12770" uniqueCount="1182">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T08:23:51+05:45</t>
+    <t>2025-05-20T11:38:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2533,7 +2533,46 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
+    <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t>Condition.code.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.system</t>
+  </si>
+  <si>
     <t>http://id.who.int/icd/release/11/mms</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -2847,9 +2886,6 @@
   </si>
   <si>
     <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>An identifier for this patient</t>
@@ -3155,9 +3191,6 @@
   </si>
   <si>
     <t>Patient.telecom</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
@@ -4697,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="114">
@@ -4705,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="115">
@@ -4721,7 +4754,7 @@
         <v>8</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="117">
@@ -4729,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="118">
@@ -4737,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="119">
@@ -4791,7 +4824,7 @@
         <v>23</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="126">
@@ -4829,7 +4862,7 @@
         <v>32</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="131">
@@ -4837,7 +4870,7 @@
         <v>34</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="132">
@@ -4863,7 +4896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK366"/>
+  <dimension ref="A1:AK377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -33714,11 +33747,13 @@
         <v>79</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z274" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Z274" t="s" s="2">
+        <v>804</v>
+      </c>
       <c r="AA274" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AB274" t="s" s="2">
         <v>79</v>
@@ -33756,10 +33791,10 @@
         <v>736</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33770,7 +33805,7 @@
         <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>79</v>
@@ -33779,20 +33814,18 @@
         <v>79</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>806</v>
+        <v>186</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>808</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>79</v>
@@ -33817,13 +33850,13 @@
         <v>79</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Z275" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AA275" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AB275" t="s" s="2">
         <v>79</v>
@@ -33841,19 +33874,19 @@
         <v>79</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>805</v>
+        <v>188</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276">
@@ -33861,44 +33894,44 @@
         <v>736</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>810</v>
+        <v>129</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I276" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J276" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>811</v>
+        <v>130</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>812</v>
+        <v>131</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O276" s="2"/>
-      <c r="P276" t="s" s="2">
-        <v>814</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O276" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>79</v>
       </c>
@@ -33934,31 +33967,31 @@
         <v>79</v>
       </c>
       <c r="AC276" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AD276" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AE276" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>809</v>
+        <v>194</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="277">
@@ -33966,10 +33999,10 @@
         <v>736</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33980,7 +34013,7 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s" s="2">
         <v>79</v>
@@ -33992,18 +34025,20 @@
         <v>87</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>816</v>
+        <v>197</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>817</v>
+        <v>198</v>
       </c>
       <c r="O277" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="P277" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="P277" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="Q277" t="s" s="2">
         <v>79</v>
       </c>
@@ -34051,13 +34086,13 @@
         <v>79</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>815</v>
+        <v>202</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ277" t="s" s="2">
         <v>79</v>
@@ -34071,10 +34106,10 @@
         <v>736</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -34088,26 +34123,24 @@
         <v>86</v>
       </c>
       <c r="I278" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J278" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>820</v>
+        <v>185</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>821</v>
+        <v>186</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>79</v>
@@ -34156,7 +34189,7 @@
         <v>79</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>819</v>
+        <v>188</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -34168,7 +34201,7 @@
         <v>79</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279">
@@ -34176,21 +34209,21 @@
         <v>736</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>79</v>
@@ -34202,16 +34235,16 @@
         <v>79</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>820</v>
+        <v>130</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>825</v>
+        <v>131</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>826</v>
+        <v>190</v>
       </c>
       <c r="O279" t="s" s="2">
-        <v>827</v>
+        <v>133</v>
       </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
@@ -34249,31 +34282,31 @@
         <v>79</v>
       </c>
       <c r="AC279" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AD279" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AE279" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>824</v>
+        <v>194</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>828</v>
+        <v>79</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="280">
@@ -34281,10 +34314,10 @@
         <v>736</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -34298,7 +34331,7 @@
         <v>86</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>79</v>
@@ -34307,16 +34340,20 @@
         <v>87</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>830</v>
+        <v>211</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P280" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="Q280" t="s" s="2">
         <v>79</v>
       </c>
@@ -34325,7 +34362,7 @@
         <v>79</v>
       </c>
       <c r="T280" t="s" s="2">
-        <v>79</v>
+        <v>812</v>
       </c>
       <c r="U280" t="s" s="2">
         <v>79</v>
@@ -34364,7 +34401,7 @@
         <v>79</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>829</v>
+        <v>216</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
@@ -34384,10 +34421,10 @@
         <v>736</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34410,15 +34447,17 @@
         <v>87</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>833</v>
+        <v>185</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>834</v>
+        <v>219</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>79</v>
@@ -34467,7 +34506,7 @@
         <v>79</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>832</v>
+        <v>222</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
@@ -34487,10 +34526,10 @@
         <v>736</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34513,16 +34552,18 @@
         <v>87</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>833</v>
+        <v>106</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>837</v>
+        <v>225</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>838</v>
+        <v>226</v>
       </c>
       <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
+      <c r="P282" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Q282" t="s" s="2">
         <v>79</v>
       </c>
@@ -34570,7 +34611,7 @@
         <v>79</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>836</v>
+        <v>229</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -34590,10 +34631,10 @@
         <v>736</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34604,7 +34645,7 @@
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>79</v>
@@ -34613,19 +34654,21 @@
         <v>79</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>840</v>
+        <v>232</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>841</v>
+        <v>233</v>
       </c>
       <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
+      <c r="P283" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="Q283" t="s" s="2">
         <v>79</v>
       </c>
@@ -34673,19 +34716,19 @@
         <v>79</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>839</v>
+        <v>235</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>842</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284">
@@ -34693,10 +34736,10 @@
         <v>736</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34716,19 +34759,23 @@
         <v>79</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P284" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="Q284" t="s" s="2">
         <v>79</v>
       </c>
@@ -34776,7 +34823,7 @@
         <v>79</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
@@ -34788,7 +34835,7 @@
         <v>79</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="285">
@@ -34796,21 +34843,21 @@
         <v>736</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I285" t="s" s="2">
         <v>79</v>
@@ -34819,21 +34866,23 @@
         <v>79</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="P285" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="P285" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Q285" t="s" s="2">
         <v>79</v>
       </c>
@@ -34881,19 +34930,19 @@
         <v>79</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286">
@@ -34901,14 +34950,14 @@
         <v>736</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
@@ -34921,26 +34970,24 @@
         <v>79</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K286" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>385</v>
+        <v>819</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>386</v>
+        <v>820</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="P286" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
         <v>79</v>
       </c>
@@ -34964,13 +35011,13 @@
         <v>79</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Z286" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AA286" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AB286" t="s" s="2">
         <v>79</v>
@@ -34988,7 +35035,7 @@
         <v>79</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>387</v>
+        <v>818</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
@@ -35000,7 +35047,7 @@
         <v>79</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287">
@@ -35008,42 +35055,44 @@
         <v>736</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>79</v>
+        <v>823</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H287" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>168</v>
+        <v>824</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
+      <c r="P287" t="s" s="2">
+        <v>827</v>
+      </c>
       <c r="Q287" t="s" s="2">
         <v>79</v>
       </c>
@@ -35067,13 +35116,13 @@
         <v>79</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Z287" t="s" s="2">
-        <v>849</v>
+        <v>79</v>
       </c>
       <c r="AA287" t="s" s="2">
-        <v>850</v>
+        <v>79</v>
       </c>
       <c r="AB287" t="s" s="2">
         <v>79</v>
@@ -35091,16 +35140,16 @@
         <v>79</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="AH287" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI287" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>851</v>
+        <v>79</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>98</v>
@@ -35111,10 +35160,10 @@
         <v>736</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -35125,7 +35174,7 @@
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>79</v>
@@ -35134,18 +35183,20 @@
         <v>79</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>853</v>
+        <v>289</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>830</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>831</v>
+      </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>79</v>
@@ -35194,16 +35245,16 @@
         <v>79</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>851</v>
+        <v>79</v>
       </c>
       <c r="AK288" t="s" s="2">
         <v>98</v>
@@ -35214,10 +35265,10 @@
         <v>736</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -35231,24 +35282,26 @@
         <v>86</v>
       </c>
       <c r="I289" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J289" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>168</v>
+        <v>833</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>835</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>836</v>
+      </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
         <v>79</v>
@@ -35273,13 +35326,13 @@
         <v>79</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Z289" t="s" s="2">
-        <v>859</v>
+        <v>79</v>
       </c>
       <c r="AA289" t="s" s="2">
-        <v>860</v>
+        <v>79</v>
       </c>
       <c r="AB289" t="s" s="2">
         <v>79</v>
@@ -35297,7 +35350,7 @@
         <v>79</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
@@ -35317,10 +35370,10 @@
         <v>736</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35331,7 +35384,7 @@
         <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I290" t="s" s="2">
         <v>79</v>
@@ -35343,16 +35396,16 @@
         <v>79</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>375</v>
+        <v>833</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -35402,19 +35455,19 @@
         <v>79</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>79</v>
+        <v>841</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>865</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291">
@@ -35422,10 +35475,10 @@
         <v>736</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35439,22 +35492,22 @@
         <v>86</v>
       </c>
       <c r="I291" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J291" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>186</v>
+        <v>843</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>187</v>
+        <v>844</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
@@ -35505,7 +35558,7 @@
         <v>79</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>188</v>
+        <v>842</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -35517,7 +35570,7 @@
         <v>79</v>
       </c>
       <c r="AK291" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292">
@@ -35525,21 +35578,21 @@
         <v>736</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>79</v>
@@ -35548,20 +35601,18 @@
         <v>79</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>130</v>
+        <v>846</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>131</v>
+        <v>847</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O292" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="O292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
         <v>79</v>
@@ -35610,19 +35661,19 @@
         <v>79</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>194</v>
+        <v>845</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293">
@@ -35630,46 +35681,42 @@
         <v>736</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K293" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>130</v>
+        <v>846</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>385</v>
+        <v>850</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="P293" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="O293" s="2"/>
+      <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>79</v>
       </c>
@@ -35717,19 +35764,19 @@
         <v>79</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>387</v>
+        <v>849</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294">
@@ -35737,10 +35784,10 @@
         <v>736</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35760,16 +35807,16 @@
         <v>79</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>168</v>
+        <v>375</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
@@ -35796,13 +35843,13 @@
         <v>79</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>872</v>
+        <v>79</v>
       </c>
       <c r="AA294" t="s" s="2">
-        <v>873</v>
+        <v>79</v>
       </c>
       <c r="AB294" t="s" s="2">
         <v>79</v>
@@ -35820,7 +35867,7 @@
         <v>79</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
@@ -35829,10 +35876,10 @@
         <v>78</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>874</v>
+        <v>79</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>98</v>
+        <v>855</v>
       </c>
     </row>
     <row r="295">
@@ -35840,10 +35887,10 @@
         <v>736</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35854,7 +35901,7 @@
         <v>77</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>79</v>
@@ -35863,16 +35910,16 @@
         <v>79</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>876</v>
+        <v>186</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>877</v>
+        <v>187</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
@@ -35923,19 +35970,19 @@
         <v>79</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>875</v>
+        <v>188</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>874</v>
+        <v>79</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="296">
@@ -35943,14 +35990,14 @@
         <v>736</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" t="s" s="2">
@@ -35969,15 +36016,17 @@
         <v>79</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>879</v>
+        <v>131</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="O296" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O296" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>79</v>
@@ -36026,7 +36075,7 @@
         <v>79</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>878</v>
+        <v>194</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -36038,22 +36087,22 @@
         <v>79</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>889</v>
+        <v>384</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36066,22 +36115,26 @@
         <v>79</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>890</v>
+        <v>385</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q297" t="s" s="2">
         <v>79</v>
       </c>
@@ -36129,7 +36182,7 @@
         <v>79</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>887</v>
+        <v>387</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -36141,18 +36194,18 @@
         <v>79</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>892</v>
+        <v>135</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>893</v>
+        <v>859</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>893</v>
+        <v>859</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36172,20 +36225,18 @@
         <v>79</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>89</v>
+        <v>860</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="O298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>79</v>
@@ -36210,13 +36261,13 @@
         <v>79</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>79</v>
+        <v>862</v>
       </c>
       <c r="AA298" t="s" s="2">
-        <v>79</v>
+        <v>863</v>
       </c>
       <c r="AB298" t="s" s="2">
         <v>79</v>
@@ -36234,7 +36285,7 @@
         <v>79</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>92</v>
+        <v>859</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>77</v>
@@ -36243,21 +36294,21 @@
         <v>86</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>79</v>
+        <v>864</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>894</v>
+        <v>865</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>894</v>
+        <v>865</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36268,7 +36319,7 @@
         <v>77</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>79</v>
@@ -36277,16 +36328,16 @@
         <v>79</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>94</v>
+        <v>866</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>95</v>
+        <v>867</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>96</v>
+        <v>868</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
@@ -36337,16 +36388,16 @@
         <v>79</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>97</v>
+        <v>865</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>79</v>
+        <v>864</v>
       </c>
       <c r="AK299" t="s" s="2">
         <v>98</v>
@@ -36354,13 +36405,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36377,23 +36428,21 @@
         <v>79</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>101</v>
+        <v>870</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="O300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>79</v>
@@ -36418,13 +36467,13 @@
         <v>79</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Z300" t="s" s="2">
-        <v>79</v>
+        <v>872</v>
       </c>
       <c r="AA300" t="s" s="2">
-        <v>79</v>
+        <v>873</v>
       </c>
       <c r="AB300" t="s" s="2">
         <v>79</v>
@@ -36442,7 +36491,7 @@
         <v>79</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>104</v>
+        <v>869</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
@@ -36459,13 +36508,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36476,7 +36525,7 @@
         <v>77</v>
       </c>
       <c r="H301" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I301" t="s" s="2">
         <v>79</v>
@@ -36488,16 +36537,16 @@
         <v>79</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>107</v>
+        <v>875</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>108</v>
+        <v>876</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>109</v>
+        <v>877</v>
       </c>
       <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
@@ -36523,13 +36572,13 @@
         <v>79</v>
       </c>
       <c r="Y301" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="Z301" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AA301" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AB301" t="s" s="2">
         <v>79</v>
@@ -36547,34 +36596,34 @@
         <v>79</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>113</v>
+        <v>874</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>98</v>
+        <v>878</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
@@ -36593,17 +36642,15 @@
         <v>79</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>79</v>
@@ -36652,7 +36699,7 @@
         <v>79</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>77</v>
@@ -36664,22 +36711,22 @@
         <v>79</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
@@ -36698,16 +36745,16 @@
         <v>79</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -36757,7 +36804,7 @@
         <v>79</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>77</v>
@@ -36769,22 +36816,22 @@
         <v>79</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B304" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="B304" t="s" s="2">
-        <v>899</v>
-      </c>
       <c r="C304" t="s" s="2">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
@@ -36797,22 +36844,26 @@
         <v>79</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L304" t="s" s="2">
         <v>130</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>720</v>
+        <v>385</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="O304" s="2"/>
-      <c r="P304" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>79</v>
       </c>
@@ -36848,17 +36899,19 @@
         <v>79</v>
       </c>
       <c r="AC304" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AD304" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AD304" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AE304" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>134</v>
+        <v>387</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
@@ -36875,17 +36928,15 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="D305" t="s" s="2">
-        <v>901</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
         <v>79</v>
       </c>
@@ -36894,7 +36945,7 @@
         <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>79</v>
@@ -36903,16 +36954,16 @@
         <v>79</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>902</v>
+        <v>168</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>717</v>
+        <v>883</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>718</v>
+        <v>884</v>
       </c>
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
@@ -36939,13 +36990,13 @@
         <v>79</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Z305" t="s" s="2">
-        <v>79</v>
+        <v>885</v>
       </c>
       <c r="AA305" t="s" s="2">
-        <v>79</v>
+        <v>886</v>
       </c>
       <c r="AB305" t="s" s="2">
         <v>79</v>
@@ -36963,7 +37014,7 @@
         <v>79</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>134</v>
+        <v>882</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
@@ -36972,25 +37023,25 @@
         <v>78</v>
       </c>
       <c r="AJ305" t="s" s="2">
-        <v>724</v>
+        <v>887</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" t="s" s="2">
@@ -37003,26 +37054,22 @@
         <v>79</v>
       </c>
       <c r="J306" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K306" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K306" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="L306" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>137</v>
+        <v>889</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="P306" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="O306" s="2"/>
+      <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>79</v>
       </c>
@@ -37070,7 +37117,7 @@
         <v>79</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>140</v>
+        <v>888</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
@@ -37079,21 +37126,21 @@
         <v>78</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>79</v>
+        <v>887</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37101,33 +37148,31 @@
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
-        <v>905</v>
+        <v>77</v>
       </c>
       <c r="H307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I307" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J307" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="O307" s="2"/>
-      <c r="P307" t="s" s="2">
-        <v>908</v>
-      </c>
+      <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
         <v>79</v>
       </c>
@@ -37175,7 +37220,7 @@
         <v>79</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
@@ -37192,24 +37237,24 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>79</v>
+        <v>902</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>79</v>
@@ -37221,13 +37266,13 @@
         <v>79</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>186</v>
+        <v>903</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>187</v>
+        <v>904</v>
       </c>
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
@@ -37278,41 +37323,41 @@
         <v>79</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>188</v>
+        <v>900</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ308" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>79</v>
+        <v>905</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>79</v>
@@ -37321,19 +37366,19 @@
         <v>79</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37371,42 +37416,42 @@
         <v>79</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37423,26 +37468,22 @@
         <v>79</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K310" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>912</v>
+        <v>95</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="P310" t="s" s="2">
-        <v>915</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="O310" s="2"/>
+      <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
         <v>79</v>
       </c>
@@ -37466,13 +37507,13 @@
         <v>79</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>916</v>
+        <v>79</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>917</v>
+        <v>79</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>79</v>
@@ -37490,7 +37531,7 @@
         <v>79</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>918</v>
+        <v>97</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>77</v>
@@ -37507,13 +37548,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37530,26 +37571,24 @@
         <v>79</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K311" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>920</v>
+        <v>101</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>921</v>
+        <v>102</v>
       </c>
       <c r="O311" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="P311" t="s" s="2">
-        <v>923</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
         <v>79</v>
       </c>
@@ -37573,13 +37612,13 @@
         <v>79</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>924</v>
+        <v>79</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>925</v>
+        <v>79</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>79</v>
@@ -37597,7 +37636,7 @@
         <v>79</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>926</v>
+        <v>104</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
@@ -37614,13 +37653,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37628,35 +37667,33 @@
       </c>
       <c r="F312" s="2"/>
       <c r="G312" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J312" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>928</v>
+        <v>107</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>929</v>
+        <v>108</v>
       </c>
       <c r="O312" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="P312" t="s" s="2">
-        <v>931</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
         <v>79</v>
       </c>
@@ -37668,7 +37705,7 @@
         <v>79</v>
       </c>
       <c r="U312" t="s" s="2">
-        <v>932</v>
+        <v>79</v>
       </c>
       <c r="V312" t="s" s="2">
         <v>79</v>
@@ -37680,13 +37717,13 @@
         <v>79</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AA312" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AB312" t="s" s="2">
         <v>79</v>
@@ -37704,7 +37741,7 @@
         <v>79</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>933</v>
+        <v>113</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
@@ -37721,45 +37758,45 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H313" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I313" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J313" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>935</v>
+        <v>117</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>936</v>
+        <v>118</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>937</v>
+        <v>119</v>
       </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
@@ -37773,7 +37810,7 @@
         <v>79</v>
       </c>
       <c r="U313" t="s" s="2">
-        <v>938</v>
+        <v>79</v>
       </c>
       <c r="V313" t="s" s="2">
         <v>79</v>
@@ -37809,7 +37846,7 @@
         <v>79</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>939</v>
+        <v>120</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
@@ -37826,24 +37863,24 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>940</v>
+        <v>911</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>940</v>
+        <v>911</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>79</v>
@@ -37852,18 +37889,20 @@
         <v>79</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>941</v>
+        <v>123</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>942</v>
+        <v>124</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="O314" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>79</v>
@@ -37912,30 +37951,30 @@
         <v>79</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>944</v>
+        <v>127</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ314" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37946,7 +37985,7 @@
         <v>77</v>
       </c>
       <c r="H315" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I315" t="s" s="2">
         <v>79</v>
@@ -37955,20 +37994,18 @@
         <v>79</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>946</v>
+        <v>130</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>947</v>
+        <v>720</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>949</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>79</v>
@@ -38005,44 +38042,44 @@
         <v>79</v>
       </c>
       <c r="AC315" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD315" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="AD315" s="2"/>
       <c r="AE315" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>950</v>
+        <v>134</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI315" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ315" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>951</v>
+        <v>913</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="D316" s="2"/>
+        <v>912</v>
+      </c>
+      <c r="D316" t="s" s="2">
+        <v>914</v>
+      </c>
       <c r="E316" t="s" s="2">
         <v>79</v>
       </c>
@@ -38057,32 +38094,26 @@
         <v>79</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>238</v>
+        <v>915</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>952</v>
+        <v>717</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O316" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="P316" t="s" s="2">
-        <v>955</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="O316" s="2"/>
+      <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R316" t="s" s="2">
-        <v>956</v>
-      </c>
+      <c r="R316" s="2"/>
       <c r="S316" t="s" s="2">
         <v>79</v>
       </c>
@@ -38126,65 +38157,65 @@
         <v>79</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>951</v>
+        <v>134</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ316" t="s" s="2">
-        <v>79</v>
+        <v>724</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>957</v>
+        <v>916</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>957</v>
+        <v>916</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I317" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J317" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J317" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K317" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>958</v>
+        <v>130</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>959</v>
+        <v>137</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>960</v>
+        <v>138</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>961</v>
+        <v>133</v>
       </c>
       <c r="P317" t="s" s="2">
-        <v>962</v>
+        <v>139</v>
       </c>
       <c r="Q317" t="s" s="2">
         <v>79</v>
@@ -38233,7 +38264,7 @@
         <v>79</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>957</v>
+        <v>140</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
@@ -38245,18 +38276,18 @@
         <v>79</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>963</v>
+        <v>917</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>963</v>
+        <v>917</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38264,31 +38295,33 @@
       </c>
       <c r="F318" s="2"/>
       <c r="G318" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I318" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J318" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>186</v>
+        <v>918</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>187</v>
+        <v>919</v>
       </c>
       <c r="O318" s="2"/>
-      <c r="P318" s="2"/>
+      <c r="P318" t="s" s="2">
+        <v>920</v>
+      </c>
       <c r="Q318" t="s" s="2">
         <v>79</v>
       </c>
@@ -38336,41 +38369,41 @@
         <v>79</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>188</v>
+        <v>917</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>964</v>
+        <v>921</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>964</v>
+        <v>921</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>79</v>
@@ -38382,17 +38415,15 @@
         <v>79</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>79</v>
@@ -38429,78 +38460,76 @@
         <v>79</v>
       </c>
       <c r="AC319" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ319" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>965</v>
+        <v>922</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>965</v>
+        <v>922</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H320" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>966</v>
+        <v>131</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>967</v>
+        <v>190</v>
       </c>
       <c r="O320" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="P320" t="s" s="2">
-        <v>969</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>79</v>
       </c>
@@ -38524,54 +38553,54 @@
         <v>79</v>
       </c>
       <c r="Y320" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z320" t="s" s="2">
-        <v>970</v>
+        <v>79</v>
       </c>
       <c r="AA320" t="s" s="2">
-        <v>971</v>
+        <v>79</v>
       </c>
       <c r="AB320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AC320" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AD320" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AE320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>972</v>
+        <v>194</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI320" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ320" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38585,28 +38614,28 @@
         <v>86</v>
       </c>
       <c r="I321" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J321" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="J321" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="K321" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>974</v>
+        <v>924</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="O321" t="s" s="2">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="P321" t="s" s="2">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="Q321" t="s" s="2">
         <v>79</v>
@@ -38631,13 +38660,13 @@
         <v>79</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>79</v>
+        <v>928</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>79</v>
+        <v>929</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>79</v>
@@ -38655,7 +38684,7 @@
         <v>79</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>978</v>
+        <v>930</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>77</v>
@@ -38672,27 +38701,27 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>979</v>
+        <v>931</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>979</v>
+        <v>931</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
-        <v>980</v>
+        <v>79</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H322" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I322" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J322" t="s" s="2">
         <v>79</v>
@@ -38701,18 +38730,20 @@
         <v>87</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>981</v>
+        <v>932</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>982</v>
+        <v>933</v>
       </c>
       <c r="O322" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="P322" s="2"/>
+        <v>934</v>
+      </c>
+      <c r="P322" t="s" s="2">
+        <v>935</v>
+      </c>
       <c r="Q322" t="s" s="2">
         <v>79</v>
       </c>
@@ -38736,13 +38767,13 @@
         <v>79</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Z322" t="s" s="2">
-        <v>79</v>
+        <v>936</v>
       </c>
       <c r="AA322" t="s" s="2">
-        <v>79</v>
+        <v>937</v>
       </c>
       <c r="AB322" t="s" s="2">
         <v>79</v>
@@ -38760,7 +38791,7 @@
         <v>79</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>984</v>
+        <v>938</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>77</v>
@@ -38777,17 +38808,17 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>985</v>
+        <v>939</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>985</v>
+        <v>939</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
-        <v>986</v>
+        <v>79</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" t="s" s="2">
@@ -38806,18 +38837,20 @@
         <v>87</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>987</v>
+        <v>940</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>988</v>
+        <v>941</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="P323" s="2"/>
+        <v>942</v>
+      </c>
+      <c r="P323" t="s" s="2">
+        <v>943</v>
+      </c>
       <c r="Q323" t="s" s="2">
         <v>79</v>
       </c>
@@ -38829,7 +38862,7 @@
         <v>79</v>
       </c>
       <c r="U323" t="s" s="2">
-        <v>79</v>
+        <v>944</v>
       </c>
       <c r="V323" t="s" s="2">
         <v>79</v>
@@ -38865,13 +38898,13 @@
         <v>79</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI323" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ323" t="s" s="2">
         <v>79</v>
@@ -38882,13 +38915,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38896,13 +38929,13 @@
       </c>
       <c r="F324" s="2"/>
       <c r="G324" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H324" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I324" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J324" t="s" s="2">
         <v>79</v>
@@ -38914,12 +38947,14 @@
         <v>185</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>992</v>
+        <v>947</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="O324" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="O324" t="s" s="2">
+        <v>949</v>
+      </c>
       <c r="P324" s="2"/>
       <c r="Q324" t="s" s="2">
         <v>79</v>
@@ -38932,7 +38967,7 @@
         <v>79</v>
       </c>
       <c r="U324" t="s" s="2">
-        <v>79</v>
+        <v>950</v>
       </c>
       <c r="V324" t="s" s="2">
         <v>79</v>
@@ -38968,13 +39003,13 @@
         <v>79</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>994</v>
+        <v>951</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI324" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ324" t="s" s="2">
         <v>79</v>
@@ -38985,13 +39020,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>995</v>
+        <v>952</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>995</v>
+        <v>952</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39002,7 +39037,7 @@
         <v>77</v>
       </c>
       <c r="H325" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I325" t="s" s="2">
         <v>79</v>
@@ -39014,13 +39049,13 @@
         <v>87</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>185</v>
+        <v>953</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
@@ -39071,13 +39106,13 @@
         <v>79</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI325" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ325" t="s" s="2">
         <v>79</v>
@@ -39088,13 +39123,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39117,18 +39152,18 @@
         <v>87</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="O326" s="2"/>
-      <c r="P326" t="s" s="2">
-        <v>1002</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="O326" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="P326" s="2"/>
       <c r="Q326" t="s" s="2">
         <v>79</v>
       </c>
@@ -39176,7 +39211,7 @@
         <v>79</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>1003</v>
+        <v>962</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>77</v>
@@ -39193,13 +39228,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39207,39 +39242,41 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
-        <v>1005</v>
+        <v>77</v>
       </c>
       <c r="H327" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I327" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J327" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="J327" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="K327" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>1006</v>
+        <v>238</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1007</v>
+        <v>964</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1008</v>
+        <v>965</v>
       </c>
       <c r="O327" t="s" s="2">
-        <v>1009</v>
+        <v>966</v>
       </c>
       <c r="P327" t="s" s="2">
-        <v>1010</v>
+        <v>967</v>
       </c>
       <c r="Q327" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R327" s="2"/>
+      <c r="R327" t="s" s="2">
+        <v>968</v>
+      </c>
       <c r="S327" t="s" s="2">
         <v>79</v>
       </c>
@@ -39283,13 +39320,13 @@
         <v>79</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI327" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ327" t="s" s="2">
         <v>79</v>
@@ -39300,13 +39337,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1011</v>
+        <v>969</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1011</v>
+        <v>969</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39314,31 +39351,35 @@
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H328" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I328" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J328" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>185</v>
+        <v>970</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>186</v>
+        <v>971</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O328" s="2"/>
-      <c r="P328" s="2"/>
+        <v>972</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>974</v>
+      </c>
       <c r="Q328" t="s" s="2">
         <v>79</v>
       </c>
@@ -39386,41 +39427,41 @@
         <v>79</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>188</v>
+        <v>969</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ328" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK328" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H329" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I329" t="s" s="2">
         <v>79</v>
@@ -39432,17 +39473,15 @@
         <v>79</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O329" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
         <v>79</v>
@@ -39479,73 +39518,75 @@
         <v>79</v>
       </c>
       <c r="AC329" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AD329" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AE329" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK329" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H330" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I330" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J330" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1014</v>
+        <v>131</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="O330" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
         <v>79</v>
@@ -39570,54 +39611,54 @@
         <v>79</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z330" t="s" s="2">
-        <v>1016</v>
+        <v>79</v>
       </c>
       <c r="AA330" t="s" s="2">
-        <v>1017</v>
+        <v>79</v>
       </c>
       <c r="AB330" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AC330" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AD330" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AE330" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1018</v>
+        <v>194</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI330" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>1019</v>
+        <v>79</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39625,34 +39666,34 @@
       </c>
       <c r="F331" s="2"/>
       <c r="G331" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H331" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I331" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J331" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="J331" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="K331" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1021</v>
+        <v>978</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1022</v>
+        <v>979</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>1023</v>
+        <v>980</v>
       </c>
       <c r="P331" t="s" s="2">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="Q331" t="s" s="2">
         <v>79</v>
@@ -39677,13 +39718,13 @@
         <v>79</v>
       </c>
       <c r="Y331" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z331" t="s" s="2">
-        <v>79</v>
+        <v>982</v>
       </c>
       <c r="AA331" t="s" s="2">
-        <v>79</v>
+        <v>983</v>
       </c>
       <c r="AB331" t="s" s="2">
         <v>79</v>
@@ -39701,7 +39742,7 @@
         <v>79</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>77</v>
@@ -39718,13 +39759,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1026</v>
+        <v>985</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1026</v>
+        <v>985</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39741,25 +39782,25 @@
         <v>87</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K332" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1027</v>
+        <v>986</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1028</v>
+        <v>987</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="P332" t="s" s="2">
-        <v>1030</v>
+        <v>989</v>
       </c>
       <c r="Q332" t="s" s="2">
         <v>79</v>
@@ -39784,13 +39825,13 @@
         <v>79</v>
       </c>
       <c r="Y332" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z332" t="s" s="2">
-        <v>1031</v>
+        <v>79</v>
       </c>
       <c r="AA332" t="s" s="2">
-        <v>1032</v>
+        <v>79</v>
       </c>
       <c r="AB332" t="s" s="2">
         <v>79</v>
@@ -39808,7 +39849,7 @@
         <v>79</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1033</v>
+        <v>990</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>77</v>
@@ -39825,27 +39866,27 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1034</v>
+        <v>991</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1034</v>
+        <v>991</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>79</v>
+        <v>992</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H333" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I333" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J333" t="s" s="2">
         <v>79</v>
@@ -39854,16 +39895,16 @@
         <v>87</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>1035</v>
+        <v>185</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1036</v>
+        <v>993</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1037</v>
+        <v>994</v>
       </c>
       <c r="O333" t="s" s="2">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
@@ -39913,7 +39954,7 @@
         <v>79</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1039</v>
+        <v>996</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>77</v>
@@ -39930,27 +39971,27 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1040</v>
+        <v>997</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1040</v>
+        <v>997</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
-        <v>79</v>
+        <v>998</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H334" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I334" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J334" t="s" s="2">
         <v>79</v>
@@ -39959,15 +40000,17 @@
         <v>87</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>941</v>
+        <v>185</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1041</v>
+        <v>999</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="O334" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="O334" t="s" s="2">
+        <v>1001</v>
+      </c>
       <c r="P334" s="2"/>
       <c r="Q334" t="s" s="2">
         <v>79</v>
@@ -40016,13 +40059,13 @@
         <v>79</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>1043</v>
+        <v>1002</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI334" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ334" t="s" s="2">
         <v>79</v>
@@ -40033,13 +40076,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1044</v>
+        <v>1003</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1044</v>
+        <v>1003</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40047,13 +40090,13 @@
       </c>
       <c r="F335" s="2"/>
       <c r="G335" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I335" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J335" t="s" s="2">
         <v>79</v>
@@ -40062,20 +40105,16 @@
         <v>87</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>1045</v>
+        <v>1004</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1046</v>
-      </c>
-      <c r="O335" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="P335" t="s" s="2">
-        <v>1048</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="O335" s="2"/>
+      <c r="P335" s="2"/>
       <c r="Q335" t="s" s="2">
         <v>79</v>
       </c>
@@ -40099,13 +40138,13 @@
         <v>79</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>1049</v>
+        <v>79</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>1050</v>
+        <v>79</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>79</v>
@@ -40123,13 +40162,13 @@
         <v>79</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>1044</v>
+        <v>1006</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI335" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ335" t="s" s="2">
         <v>79</v>
@@ -40140,13 +40179,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40154,13 +40193,13 @@
       </c>
       <c r="F336" s="2"/>
       <c r="G336" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H336" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I336" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J336" t="s" s="2">
         <v>79</v>
@@ -40169,20 +40208,16 @@
         <v>87</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1052</v>
+        <v>185</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1053</v>
+        <v>1008</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="O336" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="P336" t="s" s="2">
-        <v>1056</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="O336" s="2"/>
+      <c r="P336" s="2"/>
       <c r="Q336" t="s" s="2">
         <v>79</v>
       </c>
@@ -40230,13 +40265,13 @@
         <v>79</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1051</v>
+        <v>1010</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI336" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ336" t="s" s="2">
         <v>79</v>
@@ -40247,13 +40282,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1057</v>
+        <v>1011</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1057</v>
+        <v>1011</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40270,25 +40305,23 @@
         <v>79</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K337" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1058</v>
+        <v>953</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>1061</v>
-      </c>
+        <v>1013</v>
+      </c>
+      <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
-        <v>1062</v>
+        <v>1014</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>79</v>
@@ -40337,7 +40370,7 @@
         <v>79</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>77</v>
@@ -40354,13 +40387,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1063</v>
+        <v>1016</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1063</v>
+        <v>1016</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40368,13 +40401,13 @@
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H338" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I338" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J338" t="s" s="2">
         <v>79</v>
@@ -40383,19 +40416,19 @@
         <v>87</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>1064</v>
+        <v>1017</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1065</v>
+        <v>1018</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1066</v>
+        <v>1019</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1067</v>
+        <v>1020</v>
       </c>
       <c r="P338" t="s" s="2">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="Q338" t="s" s="2">
         <v>79</v>
@@ -40444,7 +40477,7 @@
         <v>79</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1063</v>
+        <v>1016</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>77</v>
@@ -40461,13 +40494,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40490,18 +40523,16 @@
         <v>79</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1070</v>
+        <v>186</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1071</v>
+        <v>187</v>
       </c>
       <c r="O339" s="2"/>
-      <c r="P339" t="s" s="2">
-        <v>1072</v>
-      </c>
+      <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
         <v>79</v>
       </c>
@@ -40525,13 +40556,13 @@
         <v>79</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Z339" t="s" s="2">
-        <v>1073</v>
+        <v>79</v>
       </c>
       <c r="AA339" t="s" s="2">
-        <v>1074</v>
+        <v>79</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>79</v>
@@ -40549,7 +40580,7 @@
         <v>79</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1069</v>
+        <v>188</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>77</v>
@@ -40561,29 +40592,29 @@
         <v>79</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1075</v>
+        <v>1023</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1075</v>
+        <v>1023</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H340" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I340" t="s" s="2">
         <v>79</v>
@@ -40595,20 +40626,18 @@
         <v>79</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>1076</v>
+        <v>130</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1077</v>
+        <v>131</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1078</v>
+        <v>190</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="P340" t="s" s="2">
-        <v>1080</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
         <v>79</v>
       </c>
@@ -40644,42 +40673,42 @@
         <v>79</v>
       </c>
       <c r="AC340" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AD340" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AE340" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1075</v>
+        <v>194</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK340" t="s" s="2">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1081</v>
+        <v>1024</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1081</v>
+        <v>1024</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40687,35 +40716,31 @@
       </c>
       <c r="F341" s="2"/>
       <c r="G341" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H341" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I341" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J341" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1082</v>
+        <v>106</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1083</v>
+        <v>1025</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="O341" t="s" s="2">
-        <v>1085</v>
-      </c>
-      <c r="P341" t="s" s="2">
-        <v>1086</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="O341" s="2"/>
+      <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
         <v>79</v>
       </c>
@@ -40739,13 +40764,13 @@
         <v>79</v>
       </c>
       <c r="Y341" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z341" t="s" s="2">
-        <v>79</v>
+        <v>1027</v>
       </c>
       <c r="AA341" t="s" s="2">
-        <v>79</v>
+        <v>1028</v>
       </c>
       <c r="AB341" t="s" s="2">
         <v>79</v>
@@ -40763,16 +40788,16 @@
         <v>79</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ341" t="s" s="2">
-        <v>79</v>
+        <v>1030</v>
       </c>
       <c r="AK341" t="s" s="2">
         <v>98</v>
@@ -40780,13 +40805,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1087</v>
+        <v>1031</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1087</v>
+        <v>1031</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40794,34 +40819,34 @@
       </c>
       <c r="F342" s="2"/>
       <c r="G342" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I342" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J342" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1088</v>
+        <v>1032</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1089</v>
+        <v>1033</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>1091</v>
+        <v>1035</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>79</v>
@@ -40870,30 +40895,30 @@
         <v>79</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1087</v>
+        <v>1036</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>1092</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1093</v>
+        <v>1037</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1093</v>
+        <v>1037</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40907,25 +40932,29 @@
         <v>86</v>
       </c>
       <c r="I343" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>186</v>
+        <v>1038</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="P343" t="s" s="2">
+        <v>1041</v>
+      </c>
       <c r="Q343" t="s" s="2">
         <v>79</v>
       </c>
@@ -40949,13 +40978,13 @@
         <v>79</v>
       </c>
       <c r="Y343" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z343" t="s" s="2">
-        <v>79</v>
+        <v>1042</v>
       </c>
       <c r="AA343" t="s" s="2">
-        <v>79</v>
+        <v>1043</v>
       </c>
       <c r="AB343" t="s" s="2">
         <v>79</v>
@@ -40973,7 +41002,7 @@
         <v>79</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>188</v>
+        <v>1044</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>77</v>
@@ -40985,29 +41014,29 @@
         <v>79</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1094</v>
+        <v>1045</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1094</v>
+        <v>1045</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I344" t="s" s="2">
         <v>79</v>
@@ -41016,19 +41045,19 @@
         <v>79</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>130</v>
+        <v>1046</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>131</v>
+        <v>1047</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>190</v>
+        <v>1048</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>133</v>
+        <v>1049</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -41078,66 +41107,62 @@
         <v>79</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>194</v>
+        <v>1050</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK344" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1095</v>
+        <v>1051</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1095</v>
+        <v>1051</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H345" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I345" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K345" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>130</v>
+        <v>953</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>385</v>
+        <v>1052</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="P345" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="O345" s="2"/>
+      <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
         <v>79</v>
       </c>
@@ -41185,30 +41210,30 @@
         <v>79</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>387</v>
+        <v>1054</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ345" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK345" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1096</v>
+        <v>1055</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1096</v>
+        <v>1055</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41216,32 +41241,34 @@
       </c>
       <c r="F346" s="2"/>
       <c r="G346" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J346" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1097</v>
+        <v>1056</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1098</v>
-      </c>
-      <c r="O346" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="P346" t="s" s="2">
-        <v>1099</v>
+        <v>1059</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>79</v>
@@ -41266,13 +41293,13 @@
         <v>79</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="AA346" t="s" s="2">
-        <v>1101</v>
+        <v>1061</v>
       </c>
       <c r="AB346" t="s" s="2">
         <v>79</v>
@@ -41290,13 +41317,13 @@
         <v>79</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1096</v>
+        <v>1055</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>79</v>
@@ -41307,13 +41334,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1102</v>
+        <v>1062</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1102</v>
+        <v>1062</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41321,32 +41348,34 @@
       </c>
       <c r="F347" s="2"/>
       <c r="G347" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H347" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I347" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J347" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>958</v>
+        <v>1063</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1104</v>
-      </c>
-      <c r="O347" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>1066</v>
+      </c>
       <c r="P347" t="s" s="2">
-        <v>1105</v>
+        <v>1067</v>
       </c>
       <c r="Q347" t="s" s="2">
         <v>79</v>
@@ -41395,7 +41424,7 @@
         <v>79</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1102</v>
+        <v>1062</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>77</v>
@@ -41412,13 +41441,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1106</v>
+        <v>1068</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1106</v>
+        <v>1068</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41429,31 +41458,31 @@
         <v>77</v>
       </c>
       <c r="H348" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I348" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1006</v>
+        <v>1069</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1107</v>
+        <v>1070</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1108</v>
+        <v>1071</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1109</v>
+        <v>1072</v>
       </c>
       <c r="P348" t="s" s="2">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="Q348" t="s" s="2">
         <v>79</v>
@@ -41502,13 +41531,13 @@
         <v>79</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1106</v>
+        <v>1068</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI348" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ348" t="s" s="2">
         <v>79</v>
@@ -41519,13 +41548,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41536,7 +41565,7 @@
         <v>77</v>
       </c>
       <c r="H349" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I349" t="s" s="2">
         <v>79</v>
@@ -41545,20 +41574,22 @@
         <v>79</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1111</v>
+        <v>1076</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="O349" s="2"/>
+        <v>1077</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>1078</v>
+      </c>
       <c r="P349" t="s" s="2">
-        <v>1113</v>
+        <v>1079</v>
       </c>
       <c r="Q349" t="s" s="2">
         <v>79</v>
@@ -41607,13 +41638,13 @@
         <v>79</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI349" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ349" t="s" s="2">
         <v>79</v>
@@ -41624,13 +41655,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1114</v>
+        <v>1080</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1114</v>
+        <v>1080</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41653,17 +41684,17 @@
         <v>79</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1045</v>
+        <v>1081</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1115</v>
+        <v>1082</v>
       </c>
       <c r="O350" s="2"/>
       <c r="P350" t="s" s="2">
-        <v>1116</v>
+        <v>1083</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>79</v>
@@ -41688,13 +41719,13 @@
         <v>79</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="Z350" t="s" s="2">
-        <v>1049</v>
+        <v>1084</v>
       </c>
       <c r="AA350" t="s" s="2">
-        <v>1050</v>
+        <v>1085</v>
       </c>
       <c r="AB350" t="s" s="2">
         <v>79</v>
@@ -41712,7 +41743,7 @@
         <v>79</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1114</v>
+        <v>1080</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>77</v>
@@ -41729,13 +41760,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41758,17 +41789,19 @@
         <v>79</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>946</v>
+        <v>1087</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1118</v>
+        <v>1088</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="O351" s="2"/>
+        <v>1089</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>1090</v>
+      </c>
       <c r="P351" t="s" s="2">
-        <v>1120</v>
+        <v>1091</v>
       </c>
       <c r="Q351" t="s" s="2">
         <v>79</v>
@@ -41817,7 +41850,7 @@
         <v>79</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>77</v>
@@ -41826,7 +41859,7 @@
         <v>86</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>1121</v>
+        <v>79</v>
       </c>
       <c r="AK351" t="s" s="2">
         <v>98</v>
@@ -41834,13 +41867,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41851,7 +41884,7 @@
         <v>77</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I352" t="s" s="2">
         <v>79</v>
@@ -41863,16 +41896,20 @@
         <v>79</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>941</v>
+        <v>1093</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1123</v>
+        <v>1094</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1124</v>
-      </c>
-      <c r="O352" s="2"/>
-      <c r="P352" s="2"/>
+        <v>1095</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>1097</v>
+      </c>
       <c r="Q352" t="s" s="2">
         <v>79</v>
       </c>
@@ -41920,13 +41957,13 @@
         <v>79</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>79</v>
@@ -41937,13 +41974,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1125</v>
+        <v>1098</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1125</v>
+        <v>1098</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41969,16 +42006,16 @@
         <v>375</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1126</v>
+        <v>1099</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1127</v>
+        <v>1100</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1128</v>
+        <v>1101</v>
       </c>
       <c r="P353" t="s" s="2">
-        <v>1129</v>
+        <v>1102</v>
       </c>
       <c r="Q353" t="s" s="2">
         <v>79</v>
@@ -42027,7 +42064,7 @@
         <v>79</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1125</v>
+        <v>1098</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>77</v>
@@ -42039,18 +42076,18 @@
         <v>79</v>
       </c>
       <c r="AK353" t="s" s="2">
-        <v>98</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42147,13 +42184,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42252,13 +42289,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42359,13 +42396,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42373,10 +42410,10 @@
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H357" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I357" t="s" s="2">
         <v>79</v>
@@ -42391,16 +42428,14 @@
         <v>168</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="O357" t="s" s="2">
-        <v>1136</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="O357" s="2"/>
       <c r="P357" t="s" s="2">
-        <v>1137</v>
+        <v>1110</v>
       </c>
       <c r="Q357" t="s" s="2">
         <v>79</v>
@@ -42425,13 +42460,13 @@
         <v>79</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="Z357" t="s" s="2">
-        <v>111</v>
+        <v>1111</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>112</v>
+        <v>1112</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>79</v>
@@ -42449,13 +42484,13 @@
         <v>79</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="AH357" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI357" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AJ357" t="s" s="2">
         <v>79</v>
@@ -42466,13 +42501,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42495,19 +42530,17 @@
         <v>79</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>238</v>
+        <v>970</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1140</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>1141</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
-        <v>1142</v>
+        <v>1116</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>79</v>
@@ -42556,7 +42589,7 @@
         <v>79</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>77</v>
@@ -42573,17 +42606,17 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
-        <v>1144</v>
+        <v>79</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" t="s" s="2">
@@ -42602,18 +42635,20 @@
         <v>79</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1145</v>
+        <v>1017</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1146</v>
+        <v>1118</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="O359" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="P359" s="2"/>
+        <v>1120</v>
+      </c>
+      <c r="P359" t="s" s="2">
+        <v>1021</v>
+      </c>
       <c r="Q359" t="s" s="2">
         <v>79</v>
       </c>
@@ -42661,7 +42696,7 @@
         <v>79</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>77</v>
@@ -42678,13 +42713,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -42704,22 +42739,20 @@
         <v>79</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>946</v>
+        <v>1075</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1150</v>
+        <v>1122</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1151</v>
-      </c>
-      <c r="O360" t="s" s="2">
-        <v>1152</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
-        <v>1153</v>
+        <v>1124</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>79</v>
@@ -42768,7 +42801,7 @@
         <v>79</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>77</v>
@@ -42785,13 +42818,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1154</v>
+        <v>1125</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1154</v>
+        <v>1125</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -42802,31 +42835,29 @@
         <v>77</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I361" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1155</v>
+        <v>1056</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1156</v>
-      </c>
-      <c r="O361" t="s" s="2">
-        <v>1157</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="O361" s="2"/>
       <c r="P361" t="s" s="2">
-        <v>1158</v>
+        <v>1127</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>79</v>
@@ -42851,13 +42882,13 @@
         <v>79</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z361" t="s" s="2">
-        <v>79</v>
+        <v>1060</v>
       </c>
       <c r="AA361" t="s" s="2">
-        <v>79</v>
+        <v>1061</v>
       </c>
       <c r="AB361" t="s" s="2">
         <v>79</v>
@@ -42875,13 +42906,13 @@
         <v>79</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1154</v>
+        <v>1125</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>79</v>
@@ -42892,13 +42923,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -42921,16 +42952,18 @@
         <v>79</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>185</v>
+        <v>958</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>186</v>
+        <v>1129</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>187</v>
+        <v>1130</v>
       </c>
       <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
+      <c r="P362" t="s" s="2">
+        <v>1131</v>
+      </c>
       <c r="Q362" t="s" s="2">
         <v>79</v>
       </c>
@@ -42978,7 +43011,7 @@
         <v>79</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>188</v>
+        <v>1128</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>77</v>
@@ -42987,32 +43020,32 @@
         <v>86</v>
       </c>
       <c r="AJ362" t="s" s="2">
-        <v>79</v>
+        <v>1132</v>
       </c>
       <c r="AK362" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1160</v>
+        <v>1133</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1160</v>
+        <v>1133</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H363" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I363" t="s" s="2">
         <v>79</v>
@@ -43024,17 +43057,15 @@
         <v>79</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>130</v>
+        <v>953</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>131</v>
+        <v>1134</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O363" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="O363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
         <v>79</v>
@@ -43083,34 +43114,34 @@
         <v>79</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>194</v>
+        <v>1133</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK363" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" t="s" s="2">
@@ -43123,25 +43154,25 @@
         <v>79</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>385</v>
+        <v>1137</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>386</v>
+        <v>1138</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>133</v>
+        <v>1139</v>
       </c>
       <c r="P364" t="s" s="2">
-        <v>139</v>
+        <v>1140</v>
       </c>
       <c r="Q364" t="s" s="2">
         <v>79</v>
@@ -43190,7 +43221,7 @@
         <v>79</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>387</v>
+        <v>1136</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>77</v>
@@ -43202,18 +43233,18 @@
         <v>79</v>
       </c>
       <c r="AK364" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43221,7 +43252,7 @@
       </c>
       <c r="F365" s="2"/>
       <c r="G365" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H365" t="s" s="2">
         <v>86</v>
@@ -43233,20 +43264,18 @@
         <v>79</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>1163</v>
+        <v>185</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1164</v>
+        <v>186</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1165</v>
-      </c>
-      <c r="O365" t="s" s="2">
-        <v>1166</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O365" s="2"/>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
         <v>79</v>
@@ -43295,10 +43324,10 @@
         <v>79</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1162</v>
+        <v>188</v>
       </c>
       <c r="AH365" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI365" t="s" s="2">
         <v>86</v>
@@ -43307,29 +43336,29 @@
         <v>79</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H366" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I366" t="s" s="2">
         <v>79</v>
@@ -43338,18 +43367,20 @@
         <v>79</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1168</v>
+        <v>131</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="O366" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
         <v>79</v>
@@ -43374,42 +43405,1205 @@
         <v>79</v>
       </c>
       <c r="Y366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R367" s="2"/>
+      <c r="S367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="C368" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="Q368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R368" s="2"/>
+      <c r="S368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="P369" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="Q369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R369" s="2"/>
+      <c r="S369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="C370" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="O370" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R370" s="2"/>
+      <c r="S370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="P371" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="Q371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R371" s="2"/>
+      <c r="S371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C372" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="Q372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R372" s="2"/>
+      <c r="S372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="C373" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O373" s="2"/>
+      <c r="P373" s="2"/>
+      <c r="Q373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R373" s="2"/>
+      <c r="S373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="C374" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P374" s="2"/>
+      <c r="Q374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R374" s="2"/>
+      <c r="S374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="F375" s="2"/>
+      <c r="G375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P375" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Q375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R375" s="2"/>
+      <c r="S375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C376" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="P376" s="2"/>
+      <c r="Q376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R376" s="2"/>
+      <c r="S376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C377" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F377" s="2"/>
+      <c r="G377" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
+      <c r="Q377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R377" s="2"/>
+      <c r="S377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y377" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z366" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="AA366" t="s" s="2">
-        <v>1170</v>
-      </c>
-      <c r="AB366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG366" t="s" s="2">
-        <v>1167</v>
-      </c>
-      <c r="AH366" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI366" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AJ366" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK366" t="s" s="2">
+      <c r="Z377" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK377" t="s" s="2">
         <v>98</v>
       </c>
     </row>
